--- a/penomoran/NOMOR SURAT.xlsx
+++ b/penomoran/NOMOR SURAT.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="450">
   <si>
     <t>NO</t>
   </si>
@@ -1405,6 +1405,24 @@
   </si>
   <si>
     <t>PEMBENTUKAN KOMITE PENINGKATAN MUTU DAN KESELAMATAN PASIEN</t>
+  </si>
+  <si>
+    <t>PENETAPAN PETUGAS PENANGGUNG JAWAB DATA MUTU &amp; DATA INSIDEN DI UNIT KERJA DI RSUD dr. MURJANI SAMPIT</t>
+  </si>
+  <si>
+    <t>PROGRAM PENINGKATAN MUTU DAN KESELAMATAN PASIEN (PMKP) DI RSUD dr. MURJANI SAMPIT</t>
+  </si>
+  <si>
+    <t>/PDM/KPMKP/P09/RSUD-DM/I/2018</t>
+  </si>
+  <si>
+    <t>PEDOMAN PELAYANAN KOMITE PMKP</t>
+  </si>
+  <si>
+    <t>PEDOMAN PENGORGANISASIAN KOMITE PENINGKATAN MUTU DAN KESELAMATAN PASIEN DI RSUD dr. MURJANI SAMPIT</t>
+  </si>
+  <si>
+    <t>SISTEM MANAJEMEN DATA YANG TERINTEGRASI DI RSUD dr. MURJANI SAMPIT</t>
   </si>
 </sst>
 </file>
@@ -2352,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2963,7 +2981,7 @@
         <v>Hak Pasien dan Keluarga (HPK)</v>
       </c>
       <c r="B24" s="54"/>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="55" t="s">
         <v>406</v>
       </c>
       <c r="D24" s="56">
@@ -2988,7 +3006,7 @@
         <v>Hak Pasien dan Keluarga (HPK)</v>
       </c>
       <c r="B25" s="54"/>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="55" t="s">
         <v>408</v>
       </c>
       <c r="D25" s="56">
@@ -3013,7 +3031,7 @@
         <v>Hak Pasien dan Keluarga (HPK)</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="55" t="s">
         <v>410</v>
       </c>
       <c r="D26" s="56">
@@ -3038,7 +3056,7 @@
         <v>Hak Pasien dan Keluarga (HPK)</v>
       </c>
       <c r="B27" s="54"/>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="55" t="s">
         <v>415</v>
       </c>
       <c r="D27" s="56">
@@ -3063,7 +3081,7 @@
         <v>Hak Pasien dan Keluarga (HPK)</v>
       </c>
       <c r="B28" s="54"/>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="55" t="s">
         <v>417</v>
       </c>
       <c r="D28" s="56">
@@ -3088,7 +3106,7 @@
         <v>Hak Pasien dan Keluarga (HPK)</v>
       </c>
       <c r="B29" s="54"/>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="55" t="s">
         <v>419</v>
       </c>
       <c r="D29" s="56">
@@ -3113,7 +3131,7 @@
         <v>Hak Pasien dan Keluarga (HPK)</v>
       </c>
       <c r="B30" s="54"/>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="55" t="s">
         <v>420</v>
       </c>
       <c r="D30" s="56">
@@ -3138,7 +3156,7 @@
         <v>Hak Pasien dan Keluarga (HPK)</v>
       </c>
       <c r="B31" s="54"/>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="55" t="s">
         <v>422</v>
       </c>
       <c r="D31" s="56">
@@ -3163,7 +3181,7 @@
         <v>Hak Pasien dan Keluarga (HPK)</v>
       </c>
       <c r="B32" s="54"/>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="55" t="s">
         <v>425</v>
       </c>
       <c r="D32" s="56">
@@ -3188,7 +3206,7 @@
         <v>Hak Pasien dan Keluarga (HPK)</v>
       </c>
       <c r="B33" s="54"/>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="55" t="s">
         <v>427</v>
       </c>
       <c r="D33" s="56">
@@ -3213,7 +3231,7 @@
         <v>Hak Pasien dan Keluarga (HPK)</v>
       </c>
       <c r="B34" s="54"/>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="55" t="s">
         <v>431</v>
       </c>
       <c r="D34" s="56">
@@ -3238,7 +3256,7 @@
         <v>Hak Pasien dan Keluarga (HPK)</v>
       </c>
       <c r="B35" s="54"/>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="55" t="s">
         <v>432</v>
       </c>
       <c r="D35" s="56">
@@ -3263,7 +3281,7 @@
         <v>Hak Pasien dan Keluarga (HPK)</v>
       </c>
       <c r="B36" s="54"/>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="55" t="s">
         <v>435</v>
       </c>
       <c r="D36" s="56">
@@ -3288,7 +3306,7 @@
         <v>Hak Pasien dan Keluarga (HPK)</v>
       </c>
       <c r="B37" s="54"/>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="55" t="s">
         <v>436</v>
       </c>
       <c r="D37" s="56">
@@ -3338,7 +3356,7 @@
         <v>Manajemen Komunikasi dan Edukasi (MKE)</v>
       </c>
       <c r="B39" s="54"/>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="55" t="s">
         <v>439</v>
       </c>
       <c r="D39" s="56">
@@ -3363,7 +3381,7 @@
         <v>Manajemen Komunikasi dan Edukasi (MKE)</v>
       </c>
       <c r="B40" s="54"/>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="55" t="s">
         <v>440</v>
       </c>
       <c r="D40" s="56">
@@ -3382,13 +3400,13 @@
         <v>354</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="53" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="55" t="str">
         <f>VLOOKUP(H41,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
         <v>Peningkatan Mutu dan Keselamatan Pasien (PMKP)</v>
       </c>
       <c r="B41" s="54"/>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="55" t="s">
         <v>443</v>
       </c>
       <c r="D41" s="56">
@@ -3407,43 +3425,251 @@
         <v>351</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:8" s="53" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="55" t="str">
+        <f>VLOOKUP(H42,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Peningkatan Mutu dan Keselamatan Pasien (PMKP)</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>444</v>
+      </c>
+      <c r="D42" s="56">
+        <v>43102</v>
+      </c>
+      <c r="E42" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="G42" s="54" t="s">
+        <v>442</v>
+      </c>
+      <c r="H42" s="54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="53" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="55" t="str">
+        <f>VLOOKUP(H43,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Peningkatan Mutu dan Keselamatan Pasien (PMKP)</v>
+      </c>
+      <c r="C43" s="55" t="s">
+        <v>445</v>
+      </c>
+      <c r="D43" s="56">
+        <v>43102</v>
+      </c>
+      <c r="E43" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="58" t="s">
+        <v>392</v>
+      </c>
+      <c r="G43" s="54" t="s">
+        <v>442</v>
+      </c>
+      <c r="H43" s="54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="53" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="str">
+        <f>VLOOKUP(H44,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Peningkatan Mutu dan Keselamatan Pasien (PMKP)</v>
+      </c>
+      <c r="C44" s="55" t="s">
+        <v>447</v>
+      </c>
+      <c r="D44" s="56">
+        <v>43102</v>
+      </c>
+      <c r="E44" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="58" t="s">
+        <v>328</v>
+      </c>
+      <c r="G44" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="H44" s="54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="53" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="55" t="str">
+        <f>VLOOKUP(H45,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Peningkatan Mutu dan Keselamatan Pasien (PMKP)</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>448</v>
+      </c>
+      <c r="D45" s="56">
+        <v>43102</v>
+      </c>
+      <c r="E45" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="G45" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="H45" s="54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="53" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="55" t="str">
+        <f>VLOOKUP(H46,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Peningkatan Mutu dan Keselamatan Pasien (PMKP)</v>
+      </c>
+      <c r="C46" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="D46" s="56">
+        <v>43102</v>
+      </c>
+      <c r="E46" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="58" t="s">
+        <v>394</v>
+      </c>
+      <c r="G46" s="54" t="s">
+        <v>442</v>
+      </c>
+      <c r="H46" s="54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="53" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="55" t="str">
+        <f>VLOOKUP(H47,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Peningkatan Mutu dan Keselamatan Pasien (PMKP)</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="56">
+        <v>43102</v>
+      </c>
+      <c r="E47" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="58" t="s">
+        <v>392</v>
+      </c>
+      <c r="G47" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="H47" s="54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="55"/>
+      <c r="F48" s="58" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="55"/>
+      <c r="F49" s="58" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="55"/>
+      <c r="F50" s="58" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="55"/>
+      <c r="F51" s="58" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="55"/>
+    </row>
+    <row r="53" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="55"/>
+    </row>
+    <row r="54" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="55"/>
+    </row>
+    <row r="55" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="55"/>
+    </row>
+    <row r="56" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="55"/>
+    </row>
+    <row r="57" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="55"/>
+    </row>
+    <row r="58" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="55"/>
+    </row>
+    <row r="59" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="55"/>
+    </row>
+    <row r="60" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="55"/>
+    </row>
+    <row r="61" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="55"/>
+    </row>
+    <row r="62" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="55"/>
+    </row>
+    <row r="63" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="55"/>
+    </row>
+    <row r="64" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="55"/>
+    </row>
+    <row r="65" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="55"/>
+    </row>
+    <row r="66" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="55"/>
+    </row>
+    <row r="67" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="55"/>
+    </row>
+    <row r="68" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="55"/>
+    </row>
+    <row r="69" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="55"/>
+    </row>
+    <row r="70" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="55"/>
+    </row>
+    <row r="71" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="55"/>
+    </row>
+    <row r="72" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="55"/>
+    </row>
+    <row r="73" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="55"/>
+    </row>
+    <row r="74" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="55"/>
+    </row>
+    <row r="75" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="55"/>
+    </row>
+    <row r="76" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="55"/>
+    </row>
+    <row r="77" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="55"/>
+    </row>
+    <row r="78" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:H78"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/penomoran/NOMOR SURAT.xlsx
+++ b/penomoran/NOMOR SURAT.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2878" uniqueCount="452">
   <si>
     <t>NO</t>
   </si>
@@ -1423,6 +1423,12 @@
   </si>
   <si>
     <t>SISTEM MANAJEMEN DATA YANG TERINTEGRASI DI RSUD dr. MURJANI SAMPIT</t>
+  </si>
+  <si>
+    <t>KOMITE PENCEGAHAN DAN PENGENDALIAN INFEKSI DI RUMAH SAKIT UMUM DAERAH DR. MURJANI SAMPIT</t>
+  </si>
+  <si>
+    <t>KPTS/ P04/ RSUD-DM/ I/ 2018</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1874,12 +1880,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1906,6 +1906,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2224,7 +2240,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,10 +2249,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="59" t="s">
         <v>377</v>
       </c>
     </row>
@@ -2370,46 +2386,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="52" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="73" customWidth="1"/>
     <col min="2" max="2" width="8" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.85546875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" style="73" customWidth="1"/>
     <col min="4" max="4" width="14" style="52" customWidth="1"/>
     <col min="5" max="5" width="8.140625" style="52" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="71" customWidth="1"/>
     <col min="7" max="7" width="34" style="52" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.28515625" style="52" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="57" t="s">
         <v>374</v>
       </c>
     </row>
@@ -2430,7 +2446,7 @@
       <c r="E2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="69" t="s">
         <v>328</v>
       </c>
       <c r="G2" s="54" t="s">
@@ -2448,7 +2464,7 @@
       <c r="B3" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="55" t="s">
         <v>330</v>
       </c>
       <c r="D3" s="56">
@@ -2457,7 +2473,7 @@
       <c r="E3" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="69" t="s">
         <v>328</v>
       </c>
       <c r="G3" s="54" t="s">
@@ -2484,7 +2500,7 @@
       <c r="E4" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="69" t="s">
         <v>328</v>
       </c>
       <c r="G4" s="54" t="s">
@@ -2511,7 +2527,7 @@
       <c r="E5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="69" t="s">
         <v>329</v>
       </c>
       <c r="G5" s="54" t="s">
@@ -2538,7 +2554,7 @@
       <c r="E6" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="57"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="54" t="s">
         <v>338</v>
       </c>
@@ -2563,7 +2579,7 @@
       <c r="E7" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="69" t="s">
         <v>329</v>
       </c>
       <c r="G7" s="54" t="s">
@@ -2581,7 +2597,7 @@
       <c r="B8" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="55" t="s">
         <v>341</v>
       </c>
       <c r="D8" s="56">
@@ -2590,7 +2606,7 @@
       <c r="E8" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="69" t="s">
         <v>328</v>
       </c>
       <c r="G8" s="54" t="s">
@@ -2606,7 +2622,7 @@
         <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
       </c>
       <c r="B9" s="54"/>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="55" t="s">
         <v>376</v>
       </c>
       <c r="D9" s="56">
@@ -2615,10 +2631,10 @@
       <c r="E9" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="69" t="s">
         <v>328</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="60" t="s">
         <v>375</v>
       </c>
       <c r="H9" s="54" t="s">
@@ -2640,7 +2656,7 @@
       <c r="E10" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="69" t="s">
         <v>328</v>
       </c>
       <c r="G10" s="54" t="s">
@@ -2665,7 +2681,7 @@
       <c r="E11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="69" t="s">
         <v>328</v>
       </c>
       <c r="G11" s="54" t="s">
@@ -2690,7 +2706,7 @@
       <c r="E12" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="69" t="s">
         <v>329</v>
       </c>
       <c r="G12" s="54" t="s">
@@ -2715,10 +2731,10 @@
       <c r="E13" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="69" t="s">
         <v>328</v>
       </c>
-      <c r="G13" s="62" t="s">
+      <c r="G13" s="60" t="s">
         <v>388</v>
       </c>
       <c r="H13" s="54" t="s">
@@ -2740,10 +2756,10 @@
       <c r="E14" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="69" t="s">
         <v>329</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="60" t="s">
         <v>388</v>
       </c>
       <c r="H14" s="54" t="s">
@@ -2765,10 +2781,10 @@
       <c r="E15" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="69" t="s">
         <v>392</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="60" t="s">
         <v>388</v>
       </c>
       <c r="H15" s="54" t="s">
@@ -2790,10 +2806,10 @@
       <c r="E16" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="69" t="s">
         <v>394</v>
       </c>
-      <c r="G16" s="62" t="s">
+      <c r="G16" s="60" t="s">
         <v>388</v>
       </c>
       <c r="H16" s="54" t="s">
@@ -2815,7 +2831,7 @@
       <c r="E17" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="69" t="s">
         <v>328</v>
       </c>
       <c r="G17" s="54" t="s">
@@ -2840,7 +2856,7 @@
       <c r="E18" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="58" t="s">
+      <c r="F18" s="69" t="s">
         <v>329</v>
       </c>
       <c r="G18" s="54" t="s">
@@ -2865,7 +2881,7 @@
       <c r="E19" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="69" t="s">
         <v>392</v>
       </c>
       <c r="G19" s="54" t="s">
@@ -2890,7 +2906,7 @@
       <c r="E20" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="69" t="s">
         <v>394</v>
       </c>
       <c r="G20" s="54" t="s">
@@ -2915,7 +2931,7 @@
       <c r="E21" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="69" t="s">
         <v>400</v>
       </c>
       <c r="G21" s="54" t="s">
@@ -2940,7 +2956,7 @@
       <c r="E22" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="69" t="s">
         <v>403</v>
       </c>
       <c r="G22" s="54" t="s">
@@ -2965,7 +2981,7 @@
       <c r="E23" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="58" t="s">
+      <c r="F23" s="69" t="s">
         <v>405</v>
       </c>
       <c r="G23" s="54" t="s">
@@ -2990,7 +3006,7 @@
       <c r="E24" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="69" t="s">
         <v>407</v>
       </c>
       <c r="G24" s="54" t="s">
@@ -3015,7 +3031,7 @@
       <c r="E25" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="58" t="s">
+      <c r="F25" s="69" t="s">
         <v>409</v>
       </c>
       <c r="G25" s="54" t="s">
@@ -3040,7 +3056,7 @@
       <c r="E26" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="58" t="s">
+      <c r="F26" s="69" t="s">
         <v>411</v>
       </c>
       <c r="G26" s="54" t="s">
@@ -3065,10 +3081,10 @@
       <c r="E27" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="58" t="s">
+      <c r="F27" s="69" t="s">
         <v>414</v>
       </c>
-      <c r="G27" s="63" t="s">
+      <c r="G27" s="61" t="s">
         <v>413</v>
       </c>
       <c r="H27" s="54" t="s">
@@ -3090,10 +3106,10 @@
       <c r="E28" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="58" t="s">
+      <c r="F28" s="69" t="s">
         <v>416</v>
       </c>
-      <c r="G28" s="63" t="s">
+      <c r="G28" s="61" t="s">
         <v>413</v>
       </c>
       <c r="H28" s="54" t="s">
@@ -3115,10 +3131,10 @@
       <c r="E29" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="58" t="s">
+      <c r="F29" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="G29" s="63" t="s">
+      <c r="G29" s="61" t="s">
         <v>413</v>
       </c>
       <c r="H29" s="54" t="s">
@@ -3140,10 +3156,10 @@
       <c r="E30" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="58" t="s">
+      <c r="F30" s="69" t="s">
         <v>421</v>
       </c>
-      <c r="G30" s="63" t="s">
+      <c r="G30" s="61" t="s">
         <v>413</v>
       </c>
       <c r="H30" s="54" t="s">
@@ -3165,7 +3181,7 @@
       <c r="E31" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="58" t="s">
+      <c r="F31" s="69" t="s">
         <v>424</v>
       </c>
       <c r="G31" s="54" t="s">
@@ -3190,7 +3206,7 @@
       <c r="E32" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="58" t="s">
+      <c r="F32" s="69" t="s">
         <v>426</v>
       </c>
       <c r="G32" s="54" t="s">
@@ -3215,7 +3231,7 @@
       <c r="E33" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="58" t="s">
+      <c r="F33" s="69" t="s">
         <v>428</v>
       </c>
       <c r="G33" s="54" t="s">
@@ -3240,7 +3256,7 @@
       <c r="E34" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="58" t="s">
+      <c r="F34" s="69" t="s">
         <v>429</v>
       </c>
       <c r="G34" s="54" t="s">
@@ -3265,7 +3281,7 @@
       <c r="E35" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="58" t="s">
+      <c r="F35" s="69" t="s">
         <v>430</v>
       </c>
       <c r="G35" s="54" t="s">
@@ -3290,7 +3306,7 @@
       <c r="E36" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="58" t="s">
+      <c r="F36" s="69" t="s">
         <v>433</v>
       </c>
       <c r="G36" s="54" t="s">
@@ -3315,7 +3331,7 @@
       <c r="E37" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="58" t="s">
+      <c r="F37" s="69" t="s">
         <v>434</v>
       </c>
       <c r="G37" s="54" t="s">
@@ -3340,7 +3356,7 @@
       <c r="E38" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="58" t="s">
+      <c r="F38" s="69" t="s">
         <v>328</v>
       </c>
       <c r="G38" s="54" t="s">
@@ -3365,7 +3381,7 @@
       <c r="E39" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="58" t="s">
+      <c r="F39" s="69" t="s">
         <v>329</v>
       </c>
       <c r="G39" s="54" t="s">
@@ -3390,7 +3406,7 @@
       <c r="E40" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="58" t="s">
+      <c r="F40" s="69" t="s">
         <v>328</v>
       </c>
       <c r="G40" s="54" t="s">
@@ -3415,7 +3431,7 @@
       <c r="E41" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="58" t="s">
+      <c r="F41" s="69" t="s">
         <v>328</v>
       </c>
       <c r="G41" s="54" t="s">
@@ -3439,7 +3455,7 @@
       <c r="E42" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="58" t="s">
+      <c r="F42" s="69" t="s">
         <v>329</v>
       </c>
       <c r="G42" s="54" t="s">
@@ -3463,7 +3479,7 @@
       <c r="E43" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F43" s="58" t="s">
+      <c r="F43" s="69" t="s">
         <v>392</v>
       </c>
       <c r="G43" s="54" t="s">
@@ -3487,7 +3503,7 @@
       <c r="E44" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="58" t="s">
+      <c r="F44" s="69" t="s">
         <v>328</v>
       </c>
       <c r="G44" s="53" t="s">
@@ -3511,7 +3527,7 @@
       <c r="E45" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="69" t="s">
         <v>329</v>
       </c>
       <c r="G45" s="53" t="s">
@@ -3535,7 +3551,7 @@
       <c r="E46" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="58" t="s">
+      <c r="F46" s="69" t="s">
         <v>394</v>
       </c>
       <c r="G46" s="54" t="s">
@@ -3557,7 +3573,7 @@
       <c r="E47" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="58" t="s">
+      <c r="F47" s="69" t="s">
         <v>392</v>
       </c>
       <c r="G47" s="53" t="s">
@@ -3567,109 +3583,180 @@
         <v>351</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="55"/>
-      <c r="F48" s="58" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="53" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="55" t="str">
+        <f>VLOOKUP(H48,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pencegahan dan Pengendalian Infeksi (PPI)</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>450</v>
+      </c>
+      <c r="D48" s="56">
+        <v>43102</v>
+      </c>
+      <c r="E48" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="69" t="s">
+        <v>328</v>
+      </c>
+      <c r="G48" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="H48" s="53" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="72"/>
       <c r="C49" s="55"/>
-      <c r="F49" s="58" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="69"/>
+    </row>
+    <row r="50" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="72"/>
       <c r="C50" s="55"/>
-      <c r="F50" s="58" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="69"/>
+    </row>
+    <row r="51" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="72"/>
       <c r="C51" s="55"/>
-      <c r="F51" s="58" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="69"/>
+    </row>
+    <row r="52" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="72"/>
       <c r="C52" s="55"/>
-    </row>
-    <row r="53" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="70"/>
+    </row>
+    <row r="53" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="72"/>
       <c r="C53" s="55"/>
-    </row>
-    <row r="54" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="70"/>
+    </row>
+    <row r="54" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="72"/>
       <c r="C54" s="55"/>
-    </row>
-    <row r="55" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="70"/>
+    </row>
+    <row r="55" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="72"/>
       <c r="C55" s="55"/>
-    </row>
-    <row r="56" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="70"/>
+    </row>
+    <row r="56" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="72"/>
       <c r="C56" s="55"/>
-    </row>
-    <row r="57" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="70"/>
+    </row>
+    <row r="57" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="72"/>
       <c r="C57" s="55"/>
-    </row>
-    <row r="58" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="70"/>
+    </row>
+    <row r="58" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="72"/>
       <c r="C58" s="55"/>
-    </row>
-    <row r="59" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="70"/>
+    </row>
+    <row r="59" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="72"/>
       <c r="C59" s="55"/>
-    </row>
-    <row r="60" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="70"/>
+    </row>
+    <row r="60" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="72"/>
       <c r="C60" s="55"/>
-    </row>
-    <row r="61" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="70"/>
+    </row>
+    <row r="61" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="72"/>
       <c r="C61" s="55"/>
-    </row>
-    <row r="62" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="70"/>
+    </row>
+    <row r="62" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="72"/>
       <c r="C62" s="55"/>
-    </row>
-    <row r="63" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="70"/>
+    </row>
+    <row r="63" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="72"/>
       <c r="C63" s="55"/>
-    </row>
-    <row r="64" spans="3:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="70"/>
+    </row>
+    <row r="64" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="72"/>
       <c r="C64" s="55"/>
-    </row>
-    <row r="65" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F64" s="70"/>
+    </row>
+    <row r="65" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="72"/>
       <c r="C65" s="55"/>
-    </row>
-    <row r="66" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="70"/>
+    </row>
+    <row r="66" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="72"/>
       <c r="C66" s="55"/>
-    </row>
-    <row r="67" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="70"/>
+    </row>
+    <row r="67" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="72"/>
       <c r="C67" s="55"/>
-    </row>
-    <row r="68" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F67" s="70"/>
+    </row>
+    <row r="68" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="72"/>
       <c r="C68" s="55"/>
-    </row>
-    <row r="69" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F68" s="70"/>
+    </row>
+    <row r="69" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="72"/>
       <c r="C69" s="55"/>
-    </row>
-    <row r="70" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F69" s="70"/>
+    </row>
+    <row r="70" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="72"/>
       <c r="C70" s="55"/>
-    </row>
-    <row r="71" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F70" s="70"/>
+    </row>
+    <row r="71" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="72"/>
       <c r="C71" s="55"/>
-    </row>
-    <row r="72" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F71" s="70"/>
+    </row>
+    <row r="72" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="72"/>
       <c r="C72" s="55"/>
-    </row>
-    <row r="73" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="70"/>
+    </row>
+    <row r="73" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="72"/>
       <c r="C73" s="55"/>
-    </row>
-    <row r="74" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="70"/>
+    </row>
+    <row r="74" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="72"/>
       <c r="C74" s="55"/>
-    </row>
-    <row r="75" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="70"/>
+    </row>
+    <row r="75" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="72"/>
       <c r="C75" s="55"/>
-    </row>
-    <row r="76" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F75" s="70"/>
+    </row>
+    <row r="76" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="72"/>
       <c r="C76" s="55"/>
-    </row>
-    <row r="77" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F76" s="70"/>
+    </row>
+    <row r="77" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="72"/>
       <c r="C77" s="55"/>
-    </row>
-    <row r="78" spans="3:3" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="F77" s="70"/>
+    </row>
+    <row r="78" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="72"/>
+      <c r="C78" s="72"/>
+      <c r="F78" s="70"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H78"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5184,7 +5271,7 @@
       <c r="A3" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="62" t="s">
         <v>181</v>
       </c>
       <c r="C3" s="35" t="s">
@@ -5201,13 +5288,13 @@
         <v>9</v>
       </c>
       <c r="H3" s="46"/>
-      <c r="I3" s="66"/>
+      <c r="I3" s="64"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="65"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="35" t="s">
         <v>186</v>
       </c>
@@ -5222,7 +5309,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="46"/>
-      <c r="I4" s="66"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
@@ -5245,7 +5332,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="46"/>
-      <c r="I5" s="66"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
@@ -7323,7 +7410,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="23"/>
-      <c r="I3" s="67"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
@@ -7346,7 +7433,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="23"/>
-      <c r="I4" s="67"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -8185,7 +8272,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="18"/>
-      <c r="I3" s="68"/>
+      <c r="I3" s="66"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
@@ -8206,7 +8293,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="18"/>
-      <c r="I4" s="69"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
@@ -9691,7 +9778,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="66" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9716,7 +9803,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="8"/>
-      <c r="I4" s="69"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -11577,7 +11664,7 @@
       <c r="A64" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B64" s="64" t="s">
+      <c r="B64" s="62" t="s">
         <v>181</v>
       </c>
       <c r="C64" s="35" t="s">
@@ -11598,7 +11685,7 @@
       <c r="A65" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B65" s="65"/>
+      <c r="B65" s="63"/>
       <c r="C65" s="35" t="s">
         <v>186</v>
       </c>

--- a/penomoran/NOMOR SURAT.xlsx
+++ b/penomoran/NOMOR SURAT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KODE BAG" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">gabung!$A$1:$G$228</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'NO BARU'!$A$1:$H$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'NO BARU'!$A$1:$H$96</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2878" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="548">
   <si>
     <t>NO</t>
   </si>
@@ -1429,6 +1429,301 @@
   </si>
   <si>
     <t>KPTS/ P04/ RSUD-DM/ I/ 2018</t>
+  </si>
+  <si>
+    <t>PEDOMAN PENINGKATAN MUTU DAN KESELAMATAN PASIEN</t>
+  </si>
+  <si>
+    <t>PROGRAM PELATIHAN PENINGKATAN MUTU DAN KESELAMATAN PASIEN DI RSUD dr. MURJANI SAMPIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/KPTS/KPMKP/P09/RSUD-DM/I/2018 </t>
+  </si>
+  <si>
+    <t>/ KPTS/ DIR/ P05/ RSUD-DM / I / 2018</t>
+  </si>
+  <si>
+    <t>PANDUAN  ASUHAN PASIEN SERAGAM PADA RSUD dr. MURJANI SAMPIT</t>
+  </si>
+  <si>
+    <t>KEBIJAKAN PELAYANAN DAN ASUHAN PASIEN</t>
+  </si>
+  <si>
+    <t>PELAYANAN ASUHAN PASIEN YANG SERAGAM  DI SELURUH RUMAH SAKIT</t>
+  </si>
+  <si>
+    <t>/SPO/YAN/P05/RSUD-DM/I/2018</t>
+  </si>
+  <si>
+    <t>/ PER/ DIR/ P05/ RSUD-DM / I / 2018</t>
+  </si>
+  <si>
+    <t>PENGINTEGRASIAN DAN KOORDINASI AKTIVITAS ASUHAN PASIEN</t>
+  </si>
+  <si>
+    <t>/SPO/RM/P05/RSUD-DM/I/2018</t>
+  </si>
+  <si>
+    <t>CATATAN PERKEMBANGAN PASIEN TERINTEGRASI</t>
+  </si>
+  <si>
+    <t>PANDUAN RENCANA ASUHAN PASIEN</t>
+  </si>
+  <si>
+    <t>CASE MANAGER</t>
+  </si>
+  <si>
+    <t>PEMBERI ASUHAN PASIEN</t>
+  </si>
+  <si>
+    <t>PROFESIONAL PEMBERI ASUHAN (PPA)</t>
+  </si>
+  <si>
+    <t>DOKTER PENANGGUNG JAWAB PELAYANAN (DPJP)</t>
+  </si>
+  <si>
+    <t>INSTRUKSI TERTULIS</t>
+  </si>
+  <si>
+    <t>PANDUAN EARLY WARNING SYSTEM (EWS)</t>
+  </si>
+  <si>
+    <t>PANDUAN RESUSITASI DAN PANDUAN  CODE BLUE DI RSUD DR MURJANI SAMPIT</t>
+  </si>
+  <si>
+    <t>RESUSITASI JANTUNG PARU (ABCD)</t>
+  </si>
+  <si>
+    <t>RESUSITASI JANTUNG DAN PARU DC SHOCK</t>
+  </si>
+  <si>
+    <t>RESUSITASI CODE BLUE SYSTEM</t>
+  </si>
+  <si>
+    <t>PANDUAN PENOLAKAN TINDAKAN RESUSITASI (DNR)</t>
+  </si>
+  <si>
+    <t>PENOLAKAN RESUSITASI JANTUNG PARU (DNR)</t>
+  </si>
+  <si>
+    <t>KEBIJAKAN PELAYANAN BANK DARAH RUMAH SAKIT</t>
+  </si>
+  <si>
+    <t>PERMINTAAN DARAH</t>
+  </si>
+  <si>
+    <t>PERMINTAAN DARAH KE UTD</t>
+  </si>
+  <si>
+    <t>REAKSI TRANSFUSI DARAH</t>
+  </si>
+  <si>
+    <t>TRANSFUSI DARAH</t>
+  </si>
+  <si>
+    <t>PELAYANAN PASIEN KOMA DAN PASIEN DENGAN ALAT BANTU HIDUP (VENTILATOR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/SPO/YAN/P05/RSUD-DM/I/2018. </t>
+  </si>
+  <si>
+    <t>PERAWATAN PASIEN TERPASANG ALAT BANTU NAFAS (VENTILATOR MEKANIK)</t>
+  </si>
+  <si>
+    <t>PELAYANAN PASIEN KOMA</t>
+  </si>
+  <si>
+    <t>PELAYANAN PASIEN DENGAN IMONOSUPRESI</t>
+  </si>
+  <si>
+    <t>KEBIJAKAN PELAYANAN PASIEN PENYAKIT MENULAR DAN PENURUNAN DAYA TAHAN ( IMMUNO SUPPRESSED )</t>
+  </si>
+  <si>
+    <t>PELAYANAN PASIEN DENGAN PENYAKIT MENULAR</t>
+  </si>
+  <si>
+    <t>KEBIJAKAN PELAYANAN HD</t>
+  </si>
+  <si>
+    <t>PEDOMAN PERORGANISASIAN UNIT HEMODIALISIS</t>
+  </si>
+  <si>
+    <t>PANDUAN PELAYANAN  PASIEN DENGAN TERAPI DIALISIS PADA RSUD dr. MURJANI SAMPIT</t>
+  </si>
+  <si>
+    <t>PANDUAN PENGIKATAN PASIEN / RESTRAIN</t>
+  </si>
+  <si>
+    <t>PELAYANAN RESTRAIN</t>
+  </si>
+  <si>
+    <t>PANDUAN PERLINDUNGAN PASIEN TERHADAP KEKERASAN FISIK (POPULASI KHUSUS)</t>
+  </si>
+  <si>
+    <t>PELAYANAN PASIEN DENGAN RESIKO KEKERASAN</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>PELAYANAN PASIEN LANJUT USIA DENGAN KETERGANTUNGAN BANTUAN</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>PELAYANAN PASIEN ANAK DENGAN KETERGANTUNGAN BANTUAN</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANDUAN TATA LAKSANA MANAJEMEN NYERI RSUD dr. MURJANI SAMPIT </t>
+  </si>
+  <si>
+    <t>PENGELOLAAN / MENEJEMEN NYERI</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>PENGKAJIAN NYERI</t>
+  </si>
+  <si>
+    <t>PANDUAN PELAYANAN PASIEN AKHIR HAYAT “END OF LIFE”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSESMEN  PASIEN TAHAP TERMINAL </t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>PROSEDUR PELAYANAN PASIEN TAHAP TERMINAL</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>/ PER / DIR / P02 / RSUD-DM / I / 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/SPO/IRJA/P02/RSUD-DM/I/2018
+</t>
+  </si>
+  <si>
+    <t>SKRINNING RAWAT JALAN</t>
+  </si>
+  <si>
+    <t>KEBIJAKAN SKRINING PASIEN RSUD dr. MURJANI SAMPIT</t>
+  </si>
+  <si>
+    <t>/ KPTS/ DIR / P02 / RSUD-DM / I / 2018</t>
+  </si>
+  <si>
+    <t>/SPO/IGD/P02/RSUD-DM/I/2018</t>
+  </si>
+  <si>
+    <t>OBSERVASI  PASIEN DI  INSTALASI  GAWAT  DARURAT</t>
+  </si>
+  <si>
+    <t>PELAYANAN PASIEN TRIASE HIJAU</t>
+  </si>
+  <si>
+    <t>PELAYANAN PASIEN TRIASE HITAM</t>
+  </si>
+  <si>
+    <t>PELAYANAN PASIEN TRIASE KUNING</t>
+  </si>
+  <si>
+    <t>PELAYANAN PASIEN TRIASE MERAH</t>
+  </si>
+  <si>
+    <t>/ KPTS / DIR / P02 / RSUD-DM / I / 2018</t>
+  </si>
+  <si>
+    <t>PEMBERIAN INFORMASI PENUNDAAN PELAYANAN DAN PENGOBATAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANDUAN PEMBERIAN INFORMASI DAN EDUKASI </t>
+  </si>
+  <si>
+    <t>MENGATASI HAMBATAN DALAM PELAYANAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /SPO/IRNA/P02/RSUD-DM/I/2018</t>
+  </si>
+  <si>
+    <t>MENGATASI KENDALA BAHASA</t>
+  </si>
+  <si>
+    <t>MENGATASI KENDALA CACAT (DISABILITAS)</t>
+  </si>
+  <si>
+    <t>010/SPO/PRI/P02/RSUD-DM/I/2018</t>
+  </si>
+  <si>
+    <t>PEMBERIAN INFORMASI DAN EDUKASI KEPADA PASIEN DAN KELUARGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/SPO/IRNA/P02/RSUD-DM/I/2018
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEMESANAN TEMPAT TIDUR
+</t>
+  </si>
+  <si>
+    <t>REGISTRASI PASIEN DI INSTALASI GAWAT DARURAT</t>
+  </si>
+  <si>
+    <t>REGISTRASI PASIEN VIA TELEPON</t>
+  </si>
+  <si>
+    <t>SPO/IGD/P02/RSUD-DM/I/2018</t>
+  </si>
+  <si>
+    <t>REGISTRASI  PASIEN  RAWAT  JALAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPO/IRD/P02/RSUD-DM/I/2018
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROSEDUR PINDAH RUANG 
+DARI INSTALASI GAWAT DARURAT KE RUANG RAWAT INAP
+</t>
+  </si>
+  <si>
+    <t>TRANSFER ANTAR RUANG PERAWATAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFER  PASIEN   DARI  INSTALASI GAWAT  DARURAT  KE  O K
+</t>
+  </si>
+  <si>
+    <t>/SPO/PRI/P02/RSUD-DM/I/2018</t>
+  </si>
+  <si>
+    <t>PEMBERIAN INFORMASI PERKIRAAN BIAYA</t>
+  </si>
+  <si>
+    <t>ADMISI PASIEN DARI POLIKLINIK</t>
+  </si>
+  <si>
+    <t>/SPO/IRJA/P02/ RSUD-DM/I/2018</t>
+  </si>
+  <si>
+    <t>PENANGANAN PASIEN APABILA TIDAK TERSEDIA TEMPAT TIDUR DI RUANG RAWAT INAP YANG DITUJU 9 (ruang perawatan penuh)</t>
+  </si>
+  <si>
+    <t>/SPO/KMD/P02/RSUD-DM/I/2018</t>
+  </si>
+  <si>
+    <t>PENETAPAN DOKTER PENANGGUNG JAWAB PELAYANAN ( DPJP )</t>
   </si>
 </sst>
 </file>
@@ -1738,7 +2033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1889,6 +2184,28 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1906,22 +2223,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2240,7 +2541,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,22 +2685,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="73" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="65" customWidth="1"/>
     <col min="2" max="2" width="8" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.85546875" style="73" customWidth="1"/>
+    <col min="3" max="3" width="59.140625" style="65" customWidth="1"/>
     <col min="4" max="4" width="14" style="52" customWidth="1"/>
     <col min="5" max="5" width="8.140625" style="52" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="71" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
     <col min="7" max="7" width="34" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="52" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="52" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
@@ -2419,7 +2721,7 @@
       <c r="E1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="62" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="58" t="s">
@@ -2446,7 +2748,7 @@
       <c r="E2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="63" t="s">
         <v>328</v>
       </c>
       <c r="G2" s="54" t="s">
@@ -2473,7 +2775,7 @@
       <c r="E3" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="63" t="s">
         <v>328</v>
       </c>
       <c r="G3" s="54" t="s">
@@ -2500,7 +2802,7 @@
       <c r="E4" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="63" t="s">
         <v>328</v>
       </c>
       <c r="G4" s="54" t="s">
@@ -2527,7 +2829,7 @@
       <c r="E5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="63" t="s">
         <v>329</v>
       </c>
       <c r="G5" s="54" t="s">
@@ -2554,7 +2856,7 @@
       <c r="E6" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="69"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="54" t="s">
         <v>338</v>
       </c>
@@ -2579,7 +2881,7 @@
       <c r="E7" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="63" t="s">
         <v>329</v>
       </c>
       <c r="G7" s="54" t="s">
@@ -2606,7 +2908,7 @@
       <c r="E8" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="63" t="s">
         <v>328</v>
       </c>
       <c r="G8" s="54" t="s">
@@ -2631,7 +2933,7 @@
       <c r="E9" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="63" t="s">
         <v>328</v>
       </c>
       <c r="G9" s="60" t="s">
@@ -2656,7 +2958,7 @@
       <c r="E10" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="63" t="s">
         <v>328</v>
       </c>
       <c r="G10" s="54" t="s">
@@ -2681,7 +2983,7 @@
       <c r="E11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="63" t="s">
         <v>328</v>
       </c>
       <c r="G11" s="54" t="s">
@@ -2706,7 +3008,7 @@
       <c r="E12" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="69" t="s">
+      <c r="F12" s="63" t="s">
         <v>329</v>
       </c>
       <c r="G12" s="54" t="s">
@@ -2731,7 +3033,7 @@
       <c r="E13" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="63" t="s">
         <v>328</v>
       </c>
       <c r="G13" s="60" t="s">
@@ -2756,7 +3058,7 @@
       <c r="E14" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="63" t="s">
         <v>329</v>
       </c>
       <c r="G14" s="60" t="s">
@@ -2781,7 +3083,7 @@
       <c r="E15" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="63" t="s">
         <v>392</v>
       </c>
       <c r="G15" s="60" t="s">
@@ -2806,7 +3108,7 @@
       <c r="E16" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="63" t="s">
         <v>394</v>
       </c>
       <c r="G16" s="60" t="s">
@@ -2831,7 +3133,7 @@
       <c r="E17" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="63" t="s">
         <v>328</v>
       </c>
       <c r="G17" s="54" t="s">
@@ -2856,7 +3158,7 @@
       <c r="E18" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="69" t="s">
+      <c r="F18" s="63" t="s">
         <v>329</v>
       </c>
       <c r="G18" s="54" t="s">
@@ -2881,7 +3183,7 @@
       <c r="E19" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="63" t="s">
         <v>392</v>
       </c>
       <c r="G19" s="54" t="s">
@@ -2906,7 +3208,7 @@
       <c r="E20" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="69" t="s">
+      <c r="F20" s="63" t="s">
         <v>394</v>
       </c>
       <c r="G20" s="54" t="s">
@@ -2931,7 +3233,7 @@
       <c r="E21" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="69" t="s">
+      <c r="F21" s="63" t="s">
         <v>400</v>
       </c>
       <c r="G21" s="54" t="s">
@@ -2956,7 +3258,7 @@
       <c r="E22" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="69" t="s">
+      <c r="F22" s="63" t="s">
         <v>403</v>
       </c>
       <c r="G22" s="54" t="s">
@@ -2981,7 +3283,7 @@
       <c r="E23" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="69" t="s">
+      <c r="F23" s="63" t="s">
         <v>405</v>
       </c>
       <c r="G23" s="54" t="s">
@@ -3006,7 +3308,7 @@
       <c r="E24" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="69" t="s">
+      <c r="F24" s="63" t="s">
         <v>407</v>
       </c>
       <c r="G24" s="54" t="s">
@@ -3031,7 +3333,7 @@
       <c r="E25" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="69" t="s">
+      <c r="F25" s="63" t="s">
         <v>409</v>
       </c>
       <c r="G25" s="54" t="s">
@@ -3056,7 +3358,7 @@
       <c r="E26" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="69" t="s">
+      <c r="F26" s="63" t="s">
         <v>411</v>
       </c>
       <c r="G26" s="54" t="s">
@@ -3081,7 +3383,7 @@
       <c r="E27" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="69" t="s">
+      <c r="F27" s="63" t="s">
         <v>414</v>
       </c>
       <c r="G27" s="61" t="s">
@@ -3106,7 +3408,7 @@
       <c r="E28" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="69" t="s">
+      <c r="F28" s="63" t="s">
         <v>416</v>
       </c>
       <c r="G28" s="61" t="s">
@@ -3131,7 +3433,7 @@
       <c r="E29" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="69" t="s">
+      <c r="F29" s="63" t="s">
         <v>418</v>
       </c>
       <c r="G29" s="61" t="s">
@@ -3156,7 +3458,7 @@
       <c r="E30" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="69" t="s">
+      <c r="F30" s="63" t="s">
         <v>421</v>
       </c>
       <c r="G30" s="61" t="s">
@@ -3181,7 +3483,7 @@
       <c r="E31" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="69" t="s">
+      <c r="F31" s="63" t="s">
         <v>424</v>
       </c>
       <c r="G31" s="54" t="s">
@@ -3206,7 +3508,7 @@
       <c r="E32" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="69" t="s">
+      <c r="F32" s="63" t="s">
         <v>426</v>
       </c>
       <c r="G32" s="54" t="s">
@@ -3231,7 +3533,7 @@
       <c r="E33" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="69" t="s">
+      <c r="F33" s="63" t="s">
         <v>428</v>
       </c>
       <c r="G33" s="54" t="s">
@@ -3256,7 +3558,7 @@
       <c r="E34" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="69" t="s">
+      <c r="F34" s="63" t="s">
         <v>429</v>
       </c>
       <c r="G34" s="54" t="s">
@@ -3281,7 +3583,7 @@
       <c r="E35" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="69" t="s">
+      <c r="F35" s="63" t="s">
         <v>430</v>
       </c>
       <c r="G35" s="54" t="s">
@@ -3306,7 +3608,7 @@
       <c r="E36" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="69" t="s">
+      <c r="F36" s="63" t="s">
         <v>433</v>
       </c>
       <c r="G36" s="54" t="s">
@@ -3331,7 +3633,7 @@
       <c r="E37" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="69" t="s">
+      <c r="F37" s="63" t="s">
         <v>434</v>
       </c>
       <c r="G37" s="54" t="s">
@@ -3356,7 +3658,7 @@
       <c r="E38" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="69" t="s">
+      <c r="F38" s="63" t="s">
         <v>328</v>
       </c>
       <c r="G38" s="54" t="s">
@@ -3381,7 +3683,7 @@
       <c r="E39" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="69" t="s">
+      <c r="F39" s="63" t="s">
         <v>329</v>
       </c>
       <c r="G39" s="54" t="s">
@@ -3406,7 +3708,7 @@
       <c r="E40" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="69" t="s">
+      <c r="F40" s="63" t="s">
         <v>328</v>
       </c>
       <c r="G40" s="54" t="s">
@@ -3431,7 +3733,7 @@
       <c r="E41" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="69" t="s">
+      <c r="F41" s="63" t="s">
         <v>328</v>
       </c>
       <c r="G41" s="54" t="s">
@@ -3446,6 +3748,7 @@
         <f>VLOOKUP(H42,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
         <v>Peningkatan Mutu dan Keselamatan Pasien (PMKP)</v>
       </c>
+      <c r="B42" s="54"/>
       <c r="C42" s="55" t="s">
         <v>444</v>
       </c>
@@ -3455,7 +3758,7 @@
       <c r="E42" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="69" t="s">
+      <c r="F42" s="63" t="s">
         <v>329</v>
       </c>
       <c r="G42" s="54" t="s">
@@ -3470,6 +3773,7 @@
         <f>VLOOKUP(H43,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
         <v>Peningkatan Mutu dan Keselamatan Pasien (PMKP)</v>
       </c>
+      <c r="B43" s="54"/>
       <c r="C43" s="55" t="s">
         <v>445</v>
       </c>
@@ -3479,7 +3783,7 @@
       <c r="E43" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F43" s="69" t="s">
+      <c r="F43" s="63" t="s">
         <v>392</v>
       </c>
       <c r="G43" s="54" t="s">
@@ -3494,6 +3798,7 @@
         <f>VLOOKUP(H44,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
         <v>Peningkatan Mutu dan Keselamatan Pasien (PMKP)</v>
       </c>
+      <c r="B44" s="54"/>
       <c r="C44" s="55" t="s">
         <v>447</v>
       </c>
@@ -3503,10 +3808,10 @@
       <c r="E44" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="69" t="s">
+      <c r="F44" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="G44" s="53" t="s">
+      <c r="G44" s="54" t="s">
         <v>446</v>
       </c>
       <c r="H44" s="54" t="s">
@@ -3518,6 +3823,7 @@
         <f>VLOOKUP(H45,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
         <v>Peningkatan Mutu dan Keselamatan Pasien (PMKP)</v>
       </c>
+      <c r="B45" s="54"/>
       <c r="C45" s="55" t="s">
         <v>448</v>
       </c>
@@ -3527,10 +3833,10 @@
       <c r="E45" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="69" t="s">
+      <c r="F45" s="63" t="s">
         <v>329</v>
       </c>
-      <c r="G45" s="53" t="s">
+      <c r="G45" s="54" t="s">
         <v>446</v>
       </c>
       <c r="H45" s="54" t="s">
@@ -3542,6 +3848,7 @@
         <f>VLOOKUP(H46,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
         <v>Peningkatan Mutu dan Keselamatan Pasien (PMKP)</v>
       </c>
+      <c r="B46" s="54"/>
       <c r="C46" s="55" t="s">
         <v>449</v>
       </c>
@@ -3551,7 +3858,7 @@
       <c r="E46" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="69" t="s">
+      <c r="F46" s="63" t="s">
         <v>394</v>
       </c>
       <c r="G46" s="54" t="s">
@@ -3566,28 +3873,32 @@
         <f>VLOOKUP(H47,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
         <v>Peningkatan Mutu dan Keselamatan Pasien (PMKP)</v>
       </c>
-      <c r="C47" s="55"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="55" t="s">
+        <v>452</v>
+      </c>
       <c r="D47" s="56">
         <v>43102</v>
       </c>
       <c r="E47" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="69" t="s">
+      <c r="F47" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="G47" s="53" t="s">
+      <c r="G47" s="54" t="s">
         <v>446</v>
       </c>
       <c r="H47" s="54" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="53" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="55" t="str">
         <f>VLOOKUP(H48,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
         <v>Pencegahan dan Pengendalian Infeksi (PPI)</v>
       </c>
+      <c r="B48" s="54"/>
       <c r="C48" s="55" t="s">
         <v>450</v>
       </c>
@@ -3597,168 +3908,1953 @@
       <c r="E48" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="69" t="s">
+      <c r="F48" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="G48" s="53" t="s">
+      <c r="G48" s="54" t="s">
         <v>451</v>
       </c>
-      <c r="H48" s="53" t="s">
+      <c r="H48" s="54" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="72"/>
-      <c r="C49" s="55"/>
-      <c r="F49" s="69"/>
-    </row>
-    <row r="50" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="72"/>
-      <c r="C50" s="55"/>
-      <c r="F50" s="69"/>
-    </row>
-    <row r="51" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="72"/>
-      <c r="C51" s="55"/>
-      <c r="F51" s="69"/>
-    </row>
-    <row r="52" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="72"/>
-      <c r="C52" s="55"/>
-      <c r="F52" s="70"/>
-    </row>
-    <row r="53" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="72"/>
-      <c r="C53" s="55"/>
-      <c r="F53" s="70"/>
-    </row>
-    <row r="54" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="72"/>
-      <c r="C54" s="55"/>
-      <c r="F54" s="70"/>
-    </row>
-    <row r="55" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="72"/>
-      <c r="C55" s="55"/>
-      <c r="F55" s="70"/>
-    </row>
-    <row r="56" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="72"/>
-      <c r="C56" s="55"/>
-      <c r="F56" s="70"/>
-    </row>
-    <row r="57" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="72"/>
-      <c r="C57" s="55"/>
-      <c r="F57" s="70"/>
-    </row>
-    <row r="58" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="72"/>
-      <c r="C58" s="55"/>
-      <c r="F58" s="70"/>
-    </row>
-    <row r="59" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="72"/>
-      <c r="C59" s="55"/>
-      <c r="F59" s="70"/>
-    </row>
-    <row r="60" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="72"/>
-      <c r="C60" s="55"/>
-      <c r="F60" s="70"/>
-    </row>
-    <row r="61" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="72"/>
-      <c r="C61" s="55"/>
-      <c r="F61" s="70"/>
-    </row>
-    <row r="62" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="72"/>
-      <c r="C62" s="55"/>
-      <c r="F62" s="70"/>
-    </row>
-    <row r="63" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="72"/>
-      <c r="C63" s="55"/>
-      <c r="F63" s="70"/>
-    </row>
-    <row r="64" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="72"/>
-      <c r="C64" s="55"/>
-      <c r="F64" s="70"/>
-    </row>
-    <row r="65" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="72"/>
-      <c r="C65" s="55"/>
-      <c r="F65" s="70"/>
-    </row>
-    <row r="66" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="72"/>
-      <c r="C66" s="55"/>
-      <c r="F66" s="70"/>
-    </row>
-    <row r="67" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="72"/>
-      <c r="C67" s="55"/>
-      <c r="F67" s="70"/>
-    </row>
-    <row r="68" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="72"/>
-      <c r="C68" s="55"/>
-      <c r="F68" s="70"/>
-    </row>
-    <row r="69" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="72"/>
-      <c r="C69" s="55"/>
-      <c r="F69" s="70"/>
-    </row>
-    <row r="70" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="72"/>
-      <c r="C70" s="55"/>
-      <c r="F70" s="70"/>
-    </row>
-    <row r="71" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="72"/>
-      <c r="C71" s="55"/>
-      <c r="F71" s="70"/>
-    </row>
-    <row r="72" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="72"/>
-      <c r="C72" s="55"/>
-      <c r="F72" s="70"/>
-    </row>
-    <row r="73" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="72"/>
-      <c r="C73" s="55"/>
-      <c r="F73" s="70"/>
-    </row>
-    <row r="74" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="72"/>
-      <c r="C74" s="55"/>
-      <c r="F74" s="70"/>
-    </row>
-    <row r="75" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="72"/>
-      <c r="C75" s="55"/>
-      <c r="F75" s="70"/>
-    </row>
-    <row r="76" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="72"/>
-      <c r="C76" s="55"/>
-      <c r="F76" s="70"/>
-    </row>
-    <row r="77" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="72"/>
-      <c r="C77" s="55"/>
-      <c r="F77" s="70"/>
-    </row>
-    <row r="78" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="72"/>
-      <c r="C78" s="72"/>
-      <c r="F78" s="70"/>
+    <row r="49" spans="1:8" s="53" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="str">
+        <f>VLOOKUP(H49,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Peningkatan Mutu dan Keselamatan Pasien (PMKP)</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="55" t="s">
+        <v>453</v>
+      </c>
+      <c r="D49" s="56">
+        <v>43102</v>
+      </c>
+      <c r="E49" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="63" t="s">
+        <v>400</v>
+      </c>
+      <c r="G49" s="54" t="s">
+        <v>454</v>
+      </c>
+      <c r="H49" s="54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="55" t="str">
+        <f>VLOOKUP(H50,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="55" t="s">
+        <v>456</v>
+      </c>
+      <c r="D50" s="56">
+        <v>43102</v>
+      </c>
+      <c r="E50" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="G50" s="54" t="s">
+        <v>455</v>
+      </c>
+      <c r="H50" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="55" t="str">
+        <f>VLOOKUP(H51,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="55" t="s">
+        <v>457</v>
+      </c>
+      <c r="D51" s="56">
+        <v>43102</v>
+      </c>
+      <c r="E51" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="G51" s="54" t="s">
+        <v>460</v>
+      </c>
+      <c r="H51" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="55" t="str">
+        <f>VLOOKUP(H52,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="D52" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E52" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="G52" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="H52" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="55" t="str">
+        <f>VLOOKUP(H53,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="55" t="s">
+        <v>461</v>
+      </c>
+      <c r="D53" s="70">
+        <v>43102</v>
+      </c>
+      <c r="E53" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="66" t="s">
+        <v>329</v>
+      </c>
+      <c r="G53" s="54" t="s">
+        <v>455</v>
+      </c>
+      <c r="H53" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="55" t="str">
+        <f>VLOOKUP(H54,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="55" t="s">
+        <v>463</v>
+      </c>
+      <c r="D54" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E54" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="66" t="s">
+        <v>329</v>
+      </c>
+      <c r="G54" s="54" t="s">
+        <v>462</v>
+      </c>
+      <c r="H54" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="55" t="str">
+        <f>VLOOKUP(H55,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="55" t="s">
+        <v>464</v>
+      </c>
+      <c r="D55" s="70">
+        <v>43102</v>
+      </c>
+      <c r="E55" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="66" t="s">
+        <v>392</v>
+      </c>
+      <c r="G55" s="54" t="s">
+        <v>455</v>
+      </c>
+      <c r="H55" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="55" t="str">
+        <f>VLOOKUP(H56,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="55" t="s">
+        <v>465</v>
+      </c>
+      <c r="D56" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E56" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="66" t="s">
+        <v>392</v>
+      </c>
+      <c r="G56" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="H56" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="55" t="str">
+        <f>VLOOKUP(H57,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="55" t="s">
+        <v>466</v>
+      </c>
+      <c r="D57" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E57" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="66" t="s">
+        <v>394</v>
+      </c>
+      <c r="G57" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="H57" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="55" t="str">
+        <f>VLOOKUP(H58,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="55" t="s">
+        <v>468</v>
+      </c>
+      <c r="D58" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E58" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="G58" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="H58" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="55" t="str">
+        <f>VLOOKUP(H59,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="55" t="s">
+        <v>467</v>
+      </c>
+      <c r="D59" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E59" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="G59" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="H59" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="55" t="str">
+        <f>VLOOKUP(H60,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B60" s="54"/>
+      <c r="C60" s="55" t="s">
+        <v>469</v>
+      </c>
+      <c r="D60" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E60" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="66" t="s">
+        <v>405</v>
+      </c>
+      <c r="G60" s="54" t="s">
+        <v>462</v>
+      </c>
+      <c r="H60" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="55" t="str">
+        <f>VLOOKUP(H61,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="55" t="s">
+        <v>464</v>
+      </c>
+      <c r="D61" s="70">
+        <v>43102</v>
+      </c>
+      <c r="E61" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="66" t="s">
+        <v>394</v>
+      </c>
+      <c r="G61" s="54" t="s">
+        <v>455</v>
+      </c>
+      <c r="H61" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="55" t="str">
+        <f>VLOOKUP(H62,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B62" s="54"/>
+      <c r="C62" s="55" t="s">
+        <v>470</v>
+      </c>
+      <c r="D62" s="70">
+        <v>43102</v>
+      </c>
+      <c r="E62" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="G62" s="54" t="s">
+        <v>455</v>
+      </c>
+      <c r="H62" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="55" t="str">
+        <f>VLOOKUP(H63,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B63" s="54"/>
+      <c r="C63" s="55" t="s">
+        <v>469</v>
+      </c>
+      <c r="D63" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E63" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="66" t="s">
+        <v>407</v>
+      </c>
+      <c r="G63" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="H63" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="55" t="str">
+        <f>VLOOKUP(H64,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B64" s="54"/>
+      <c r="C64" s="55" t="s">
+        <v>471</v>
+      </c>
+      <c r="D64" s="70">
+        <v>43102</v>
+      </c>
+      <c r="E64" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="G64" s="54" t="s">
+        <v>455</v>
+      </c>
+      <c r="H64" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="55" t="str">
+        <f>VLOOKUP(H65,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="55" t="s">
+        <v>472</v>
+      </c>
+      <c r="D65" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E65" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="66" t="s">
+        <v>409</v>
+      </c>
+      <c r="G65" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="H65" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="55" t="str">
+        <f>VLOOKUP(H66,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B66" s="54"/>
+      <c r="C66" s="55" t="s">
+        <v>473</v>
+      </c>
+      <c r="D66" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E66" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="66" t="s">
+        <v>411</v>
+      </c>
+      <c r="G66" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="H66" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="55" t="str">
+        <f>VLOOKUP(H67,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B67" s="54"/>
+      <c r="C67" s="55" t="s">
+        <v>474</v>
+      </c>
+      <c r="D67" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E67" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="66" t="s">
+        <v>414</v>
+      </c>
+      <c r="G67" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="H67" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="55" t="str">
+        <f>VLOOKUP(H68,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B68" s="54"/>
+      <c r="C68" s="55" t="s">
+        <v>475</v>
+      </c>
+      <c r="D68" s="70">
+        <v>43102</v>
+      </c>
+      <c r="E68" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="66" t="s">
+        <v>405</v>
+      </c>
+      <c r="G68" s="54" t="s">
+        <v>455</v>
+      </c>
+      <c r="H68" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="55" t="str">
+        <f>VLOOKUP(H69,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B69" s="54"/>
+      <c r="C69" s="55" t="s">
+        <v>476</v>
+      </c>
+      <c r="D69" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E69" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="66" t="s">
+        <v>416</v>
+      </c>
+      <c r="G69" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="H69" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="55" t="str">
+        <f>VLOOKUP(H70,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B70" s="54"/>
+      <c r="C70" s="55" t="s">
+        <v>477</v>
+      </c>
+      <c r="D70" s="70">
+        <v>43102</v>
+      </c>
+      <c r="E70" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="66" t="s">
+        <v>407</v>
+      </c>
+      <c r="G70" s="54" t="s">
+        <v>455</v>
+      </c>
+      <c r="H70" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="55" t="str">
+        <f>VLOOKUP(H71,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B71" s="54"/>
+      <c r="C71" s="55" t="s">
+        <v>478</v>
+      </c>
+      <c r="D71" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E71" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="66" t="s">
+        <v>418</v>
+      </c>
+      <c r="G71" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="H71" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="55" t="str">
+        <f>VLOOKUP(H72,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B72" s="54"/>
+      <c r="C72" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="D72" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E72" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" s="66" t="s">
+        <v>421</v>
+      </c>
+      <c r="G72" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="H72" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="55" t="str">
+        <f>VLOOKUP(H73,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B73" s="54"/>
+      <c r="C73" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="D73" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E73" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="66" t="s">
+        <v>424</v>
+      </c>
+      <c r="G73" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="H73" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="55" t="str">
+        <f>VLOOKUP(H74,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B74" s="54"/>
+      <c r="C74" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="D74" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E74" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="66" t="s">
+        <v>426</v>
+      </c>
+      <c r="G74" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="H74" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="55" t="str">
+        <f>VLOOKUP(H75,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B75" s="54"/>
+      <c r="C75" s="55" t="s">
+        <v>482</v>
+      </c>
+      <c r="D75" s="70">
+        <v>43102</v>
+      </c>
+      <c r="E75" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="66" t="s">
+        <v>409</v>
+      </c>
+      <c r="G75" s="54" t="s">
+        <v>455</v>
+      </c>
+      <c r="H75" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="55" t="str">
+        <f>VLOOKUP(H76,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B76" s="54"/>
+      <c r="C76" s="55" t="s">
+        <v>484</v>
+      </c>
+      <c r="D76" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E76" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="G76" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="H76" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="55" t="str">
+        <f>VLOOKUP(H77,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B77" s="54"/>
+      <c r="C77" s="55" t="s">
+        <v>485</v>
+      </c>
+      <c r="D77" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E77" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" s="66" t="s">
+        <v>429</v>
+      </c>
+      <c r="G77" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="H77" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="55" t="str">
+        <f>VLOOKUP(H78,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B78" s="54"/>
+      <c r="C78" s="55" t="s">
+        <v>487</v>
+      </c>
+      <c r="D78" s="70">
+        <v>43102</v>
+      </c>
+      <c r="E78" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="66" t="s">
+        <v>411</v>
+      </c>
+      <c r="G78" s="54" t="s">
+        <v>455</v>
+      </c>
+      <c r="H78" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="55" t="str">
+        <f>VLOOKUP(H79,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B79" s="54"/>
+      <c r="C79" s="55" t="s">
+        <v>486</v>
+      </c>
+      <c r="D79" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E79" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" s="66" t="s">
+        <v>430</v>
+      </c>
+      <c r="G79" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="H79" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="55" t="str">
+        <f>VLOOKUP(H80,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B80" s="54"/>
+      <c r="C80" s="67" t="s">
+        <v>488</v>
+      </c>
+      <c r="D80" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E80" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" s="66" t="s">
+        <v>433</v>
+      </c>
+      <c r="G80" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="H80" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="55" t="str">
+        <f>VLOOKUP(H81,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B81" s="54"/>
+      <c r="C81" s="55" t="s">
+        <v>489</v>
+      </c>
+      <c r="D81" s="56">
+        <v>43102</v>
+      </c>
+      <c r="E81" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="G81" s="54" t="s">
+        <v>460</v>
+      </c>
+      <c r="H81" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="55" t="str">
+        <f>VLOOKUP(H82,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B82" s="68"/>
+      <c r="C82" s="67" t="s">
+        <v>490</v>
+      </c>
+      <c r="D82" s="56">
+        <v>43102</v>
+      </c>
+      <c r="E82" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="63" t="s">
+        <v>392</v>
+      </c>
+      <c r="G82" s="54" t="s">
+        <v>460</v>
+      </c>
+      <c r="H82" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="55" t="str">
+        <f>VLOOKUP(H83,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B83" s="68"/>
+      <c r="C83" s="67" t="s">
+        <v>491</v>
+      </c>
+      <c r="D83" s="56">
+        <v>43102</v>
+      </c>
+      <c r="E83" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="63" t="s">
+        <v>414</v>
+      </c>
+      <c r="G83" s="54" t="s">
+        <v>455</v>
+      </c>
+      <c r="H83" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="55" t="str">
+        <f>VLOOKUP(H84,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B84" s="68"/>
+      <c r="C84" s="67" t="s">
+        <v>492</v>
+      </c>
+      <c r="D84" s="56">
+        <v>43102</v>
+      </c>
+      <c r="E84" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="63" t="s">
+        <v>416</v>
+      </c>
+      <c r="G84" s="54" t="s">
+        <v>455</v>
+      </c>
+      <c r="H84" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="55" t="str">
+        <f>VLOOKUP(H85,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B85" s="68"/>
+      <c r="C85" s="67" t="s">
+        <v>493</v>
+      </c>
+      <c r="D85" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E85" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="66" t="s">
+        <v>434</v>
+      </c>
+      <c r="G85" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="H85" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="55" t="str">
+        <f>VLOOKUP(H86,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B86" s="68"/>
+      <c r="C86" s="67" t="s">
+        <v>494</v>
+      </c>
+      <c r="D86" s="56">
+        <v>43102</v>
+      </c>
+      <c r="E86" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="63" t="s">
+        <v>418</v>
+      </c>
+      <c r="G86" s="54" t="s">
+        <v>455</v>
+      </c>
+      <c r="H86" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="55" t="str">
+        <f>VLOOKUP(H87,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B87" s="68"/>
+      <c r="C87" s="67" t="s">
+        <v>495</v>
+      </c>
+      <c r="D87" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E87" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" s="66" t="s">
+        <v>496</v>
+      </c>
+      <c r="G87" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="H87" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="55" t="str">
+        <f>VLOOKUP(H88,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B88" s="68"/>
+      <c r="C88" s="67" t="s">
+        <v>497</v>
+      </c>
+      <c r="D88" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E88" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="66" t="s">
+        <v>498</v>
+      </c>
+      <c r="G88" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="H88" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="55" t="str">
+        <f>VLOOKUP(H89,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B89" s="68"/>
+      <c r="C89" s="67" t="s">
+        <v>499</v>
+      </c>
+      <c r="D89" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E89" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="66" t="s">
+        <v>500</v>
+      </c>
+      <c r="G89" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="H89" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="55" t="str">
+        <f>VLOOKUP(H90,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B90" s="68"/>
+      <c r="C90" s="67" t="s">
+        <v>501</v>
+      </c>
+      <c r="D90" s="56">
+        <v>43102</v>
+      </c>
+      <c r="E90" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="69" t="s">
+        <v>421</v>
+      </c>
+      <c r="G90" s="68" t="s">
+        <v>455</v>
+      </c>
+      <c r="H90" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="55" t="str">
+        <f>VLOOKUP(H91,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B91" s="68"/>
+      <c r="C91" s="67" t="s">
+        <v>502</v>
+      </c>
+      <c r="D91" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E91" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" s="66" t="s">
+        <v>503</v>
+      </c>
+      <c r="G91" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="H91" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="55" t="str">
+        <f>VLOOKUP(H92,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B92" s="68"/>
+      <c r="C92" s="67" t="s">
+        <v>505</v>
+      </c>
+      <c r="D92" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E92" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" s="66" t="s">
+        <v>504</v>
+      </c>
+      <c r="G92" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="H92" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="55" t="str">
+        <f>VLOOKUP(H93,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B93" s="68"/>
+      <c r="C93" s="67" t="s">
+        <v>506</v>
+      </c>
+      <c r="D93" s="56">
+        <v>43102</v>
+      </c>
+      <c r="E93" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="69" t="s">
+        <v>424</v>
+      </c>
+      <c r="G93" s="68" t="s">
+        <v>455</v>
+      </c>
+      <c r="H93" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="55" t="str">
+        <f>VLOOKUP(H94,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B94" s="68"/>
+      <c r="C94" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="D94" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E94" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" s="66" t="s">
+        <v>508</v>
+      </c>
+      <c r="G94" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="H94" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="55" t="str">
+        <f>VLOOKUP(H95,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Pelayanan dan Asuhan Pasien (PAP)</v>
+      </c>
+      <c r="B95" s="68"/>
+      <c r="C95" s="67" t="s">
+        <v>509</v>
+      </c>
+      <c r="D95" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E95" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" s="66" t="s">
+        <v>510</v>
+      </c>
+      <c r="G95" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="H95" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A96" s="55" t="str">
+        <f>VLOOKUP(H96,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B96" s="68"/>
+      <c r="C96" s="67" t="s">
+        <v>376</v>
+      </c>
+      <c r="D96" s="56">
+        <v>43102</v>
+      </c>
+      <c r="E96" s="68" t="s">
+        <v>342</v>
+      </c>
+      <c r="F96" s="69" t="s">
+        <v>328</v>
+      </c>
+      <c r="G96" s="68" t="s">
+        <v>511</v>
+      </c>
+      <c r="H96" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="55" t="str">
+        <f>VLOOKUP(H97,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B97" s="68"/>
+      <c r="C97" s="67" t="s">
+        <v>513</v>
+      </c>
+      <c r="D97" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E97" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97" s="71" t="s">
+        <v>328</v>
+      </c>
+      <c r="G97" s="67" t="s">
+        <v>512</v>
+      </c>
+      <c r="H97" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="55" t="str">
+        <f>VLOOKUP(H98,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B98" s="68"/>
+      <c r="C98" s="67" t="s">
+        <v>514</v>
+      </c>
+      <c r="D98" s="56">
+        <v>43102</v>
+      </c>
+      <c r="E98" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" s="69" t="s">
+        <v>328</v>
+      </c>
+      <c r="G98" s="68" t="s">
+        <v>515</v>
+      </c>
+      <c r="H98" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A99" s="55" t="str">
+        <f>VLOOKUP(H99,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B99" s="68"/>
+      <c r="C99" s="67" t="s">
+        <v>517</v>
+      </c>
+      <c r="D99" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E99" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" s="71" t="s">
+        <v>329</v>
+      </c>
+      <c r="G99" s="67" t="s">
+        <v>516</v>
+      </c>
+      <c r="H99" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A100" s="55" t="str">
+        <f>VLOOKUP(H100,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B100" s="68"/>
+      <c r="C100" s="67" t="s">
+        <v>518</v>
+      </c>
+      <c r="D100" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E100" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" s="69" t="s">
+        <v>392</v>
+      </c>
+      <c r="G100" s="67" t="s">
+        <v>516</v>
+      </c>
+      <c r="H100" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A101" s="55" t="str">
+        <f>VLOOKUP(H101,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B101" s="68"/>
+      <c r="C101" s="67" t="s">
+        <v>519</v>
+      </c>
+      <c r="D101" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E101" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" s="71" t="s">
+        <v>394</v>
+      </c>
+      <c r="G101" s="67" t="s">
+        <v>516</v>
+      </c>
+      <c r="H101" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A102" s="55" t="str">
+        <f>VLOOKUP(H102,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B102" s="68"/>
+      <c r="C102" s="67" t="s">
+        <v>520</v>
+      </c>
+      <c r="D102" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E102" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F102" s="71" t="s">
+        <v>400</v>
+      </c>
+      <c r="G102" s="67" t="s">
+        <v>516</v>
+      </c>
+      <c r="H102" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="55" t="str">
+        <f>VLOOKUP(H103,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B103" s="68"/>
+      <c r="C103" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="D103" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E103" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" s="71" t="s">
+        <v>403</v>
+      </c>
+      <c r="G103" s="67" t="s">
+        <v>516</v>
+      </c>
+      <c r="H103" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="55" t="str">
+        <f>VLOOKUP(H104,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B104" s="68"/>
+      <c r="C104" s="67" t="s">
+        <v>523</v>
+      </c>
+      <c r="D104" s="56">
+        <v>43102</v>
+      </c>
+      <c r="E104" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" s="69" t="s">
+        <v>329</v>
+      </c>
+      <c r="G104" s="68" t="s">
+        <v>522</v>
+      </c>
+      <c r="H104" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A105" s="55" t="str">
+        <f>VLOOKUP(H105,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B105" s="68"/>
+      <c r="C105" s="67" t="s">
+        <v>524</v>
+      </c>
+      <c r="D105" s="56">
+        <v>43102</v>
+      </c>
+      <c r="E105" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="69" t="s">
+        <v>392</v>
+      </c>
+      <c r="G105" s="68" t="s">
+        <v>522</v>
+      </c>
+      <c r="H105" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A106" s="55" t="str">
+        <f>VLOOKUP(H106,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B106" s="68"/>
+      <c r="C106" s="67" t="s">
+        <v>525</v>
+      </c>
+      <c r="D106" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E106" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F106" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="G106" s="68" t="s">
+        <v>526</v>
+      </c>
+      <c r="H106" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A107" s="55" t="str">
+        <f>VLOOKUP(H107,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B107" s="68"/>
+      <c r="C107" s="67" t="s">
+        <v>527</v>
+      </c>
+      <c r="D107" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E107" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="G107" s="68" t="s">
+        <v>526</v>
+      </c>
+      <c r="H107" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A108" s="55" t="str">
+        <f>VLOOKUP(H108,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B108" s="68"/>
+      <c r="C108" s="67" t="s">
+        <v>528</v>
+      </c>
+      <c r="D108" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E108" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F108" s="71" t="s">
+        <v>409</v>
+      </c>
+      <c r="G108" s="68" t="s">
+        <v>526</v>
+      </c>
+      <c r="H108" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A109" s="55" t="str">
+        <f>VLOOKUP(H109,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B109" s="68"/>
+      <c r="C109" s="67" t="s">
+        <v>530</v>
+      </c>
+      <c r="D109" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E109" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109" s="69" t="s">
+        <v>411</v>
+      </c>
+      <c r="G109" s="68" t="s">
+        <v>529</v>
+      </c>
+      <c r="H109" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A110" s="55" t="str">
+        <f>VLOOKUP(H110,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B110" s="68"/>
+      <c r="C110" s="67" t="s">
+        <v>517</v>
+      </c>
+      <c r="D110" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E110" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F110" s="69" t="s">
+        <v>414</v>
+      </c>
+      <c r="G110" s="68" t="s">
+        <v>516</v>
+      </c>
+      <c r="H110" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A111" s="55" t="str">
+        <f>VLOOKUP(H111,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B111" s="68"/>
+      <c r="C111" s="67" t="s">
+        <v>532</v>
+      </c>
+      <c r="D111" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E111" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F111" s="69" t="s">
+        <v>416</v>
+      </c>
+      <c r="G111" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="H111" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A112" s="55" t="str">
+        <f>VLOOKUP(H112,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B112" s="68"/>
+      <c r="C112" s="67" t="s">
+        <v>533</v>
+      </c>
+      <c r="D112" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E112" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F112" s="69" t="s">
+        <v>418</v>
+      </c>
+      <c r="G112" s="68" t="s">
+        <v>516</v>
+      </c>
+      <c r="H112" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A113" s="55" t="str">
+        <f>VLOOKUP(H113,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B113" s="68"/>
+      <c r="C113" s="67" t="s">
+        <v>534</v>
+      </c>
+      <c r="D113" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E113" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F113" s="69" t="s">
+        <v>421</v>
+      </c>
+      <c r="G113" s="68" t="s">
+        <v>535</v>
+      </c>
+      <c r="H113" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="55" t="str">
+        <f>VLOOKUP(H114,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B114" s="68"/>
+      <c r="C114" s="67" t="s">
+        <v>536</v>
+      </c>
+      <c r="D114" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E114" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F114" s="69" t="s">
+        <v>424</v>
+      </c>
+      <c r="G114" s="67" t="s">
+        <v>512</v>
+      </c>
+      <c r="H114" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A115" s="55" t="str">
+        <f>VLOOKUP(H115,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B115" s="68"/>
+      <c r="C115" s="67" t="s">
+        <v>545</v>
+      </c>
+      <c r="D115" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E115" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F115" s="69" t="s">
+        <v>426</v>
+      </c>
+      <c r="G115" s="67" t="s">
+        <v>537</v>
+      </c>
+      <c r="H115" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A116" s="55" t="str">
+        <f>VLOOKUP(H116,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B116" s="68"/>
+      <c r="C116" s="67" t="s">
+        <v>538</v>
+      </c>
+      <c r="D116" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E116" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F116" s="69" t="s">
+        <v>428</v>
+      </c>
+      <c r="G116" s="67" t="s">
+        <v>537</v>
+      </c>
+      <c r="H116" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A117" s="55" t="str">
+        <f>VLOOKUP(H117,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B117" s="68"/>
+      <c r="C117" s="67" t="s">
+        <v>539</v>
+      </c>
+      <c r="D117" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E117" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F117" s="69" t="s">
+        <v>429</v>
+      </c>
+      <c r="G117" s="67" t="s">
+        <v>531</v>
+      </c>
+      <c r="H117" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A118" s="55" t="str">
+        <f>VLOOKUP(H118,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B118" s="68"/>
+      <c r="C118" s="67" t="s">
+        <v>540</v>
+      </c>
+      <c r="D118" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E118" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F118" s="69" t="s">
+        <v>430</v>
+      </c>
+      <c r="G118" s="68" t="s">
+        <v>516</v>
+      </c>
+      <c r="H118" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A119" s="55" t="str">
+        <f>VLOOKUP(H119,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B119" s="68"/>
+      <c r="C119" s="67" t="s">
+        <v>542</v>
+      </c>
+      <c r="D119" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E119" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F119" s="69" t="s">
+        <v>433</v>
+      </c>
+      <c r="G119" s="68" t="s">
+        <v>541</v>
+      </c>
+      <c r="H119" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A120" s="55" t="str">
+        <f>VLOOKUP(H120,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B120" s="68"/>
+      <c r="C120" s="67" t="s">
+        <v>543</v>
+      </c>
+      <c r="D120" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E120" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F120" s="69" t="s">
+        <v>434</v>
+      </c>
+      <c r="G120" s="68" t="s">
+        <v>544</v>
+      </c>
+      <c r="H120" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A121" s="55" t="str">
+        <f>VLOOKUP(H121,'KODE BAG'!$A$2:$B$16,2,FALSE)</f>
+        <v>Akses ke Rumah Sakit dan Kontinuitas Pelayanan (ARK)</v>
+      </c>
+      <c r="B121" s="68"/>
+      <c r="C121" s="67" t="s">
+        <v>547</v>
+      </c>
+      <c r="D121" s="56">
+        <v>43108</v>
+      </c>
+      <c r="E121" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F121" s="69" t="s">
+        <v>496</v>
+      </c>
+      <c r="G121" s="68" t="s">
+        <v>546</v>
+      </c>
+      <c r="H121" s="68" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="55"/>
+      <c r="B122" s="68"/>
+      <c r="C122" s="67"/>
+      <c r="D122" s="56"/>
+      <c r="E122" s="54"/>
+      <c r="F122" s="69"/>
+      <c r="G122" s="68"/>
+      <c r="H122" s="68"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="55"/>
+      <c r="B123" s="68"/>
+      <c r="C123" s="67"/>
+      <c r="D123" s="56"/>
+      <c r="E123" s="54"/>
+      <c r="F123" s="69"/>
+      <c r="G123" s="68"/>
+      <c r="H123" s="68"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="55"/>
+      <c r="B124" s="68"/>
+      <c r="C124" s="67"/>
+      <c r="D124" s="56"/>
+      <c r="E124" s="54"/>
+      <c r="F124" s="69"/>
+      <c r="G124" s="68"/>
+      <c r="H124" s="68"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="55"/>
+      <c r="B125" s="68"/>
+      <c r="C125" s="67"/>
+      <c r="D125" s="56"/>
+      <c r="E125" s="54"/>
+      <c r="F125" s="69"/>
+      <c r="G125" s="68"/>
+      <c r="H125" s="68"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="55"/>
+      <c r="B126" s="68"/>
+      <c r="C126" s="67"/>
+      <c r="D126" s="56"/>
+      <c r="E126" s="54"/>
+      <c r="F126" s="69"/>
+      <c r="G126" s="68"/>
+      <c r="H126" s="68"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="55"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="67"/>
+      <c r="D127" s="56"/>
+      <c r="E127" s="54"/>
+      <c r="F127" s="69"/>
+      <c r="G127" s="68"/>
+      <c r="H127" s="68"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="55"/>
+      <c r="B128" s="68"/>
+      <c r="C128" s="67"/>
+      <c r="D128" s="56"/>
+      <c r="E128" s="54"/>
+      <c r="F128" s="69"/>
+      <c r="G128" s="68"/>
+      <c r="H128" s="68"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="55"/>
+      <c r="B129" s="68"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="56"/>
+      <c r="E129" s="54"/>
+      <c r="F129" s="69"/>
+      <c r="G129" s="68"/>
+      <c r="H129" s="68"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="55"/>
+      <c r="B130" s="68"/>
+      <c r="C130" s="67"/>
+      <c r="D130" s="56"/>
+      <c r="E130" s="54"/>
+      <c r="F130" s="69"/>
+      <c r="G130" s="68"/>
+      <c r="H130" s="68"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="55"/>
+      <c r="B131" s="68"/>
+      <c r="C131" s="67"/>
+      <c r="D131" s="56"/>
+      <c r="E131" s="54"/>
+      <c r="F131" s="69"/>
+      <c r="G131" s="68"/>
+      <c r="H131" s="68"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="55"/>
+      <c r="B132" s="68"/>
+      <c r="C132" s="67"/>
+      <c r="D132" s="56"/>
+      <c r="E132" s="54"/>
+      <c r="F132" s="69"/>
+      <c r="G132" s="68"/>
+      <c r="H132" s="68"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H78"/>
+  <autoFilter ref="A1:H96"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5271,7 +7367,7 @@
       <c r="A3" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="72" t="s">
         <v>181</v>
       </c>
       <c r="C3" s="35" t="s">
@@ -5288,13 +7384,13 @@
         <v>9</v>
       </c>
       <c r="H3" s="46"/>
-      <c r="I3" s="64"/>
+      <c r="I3" s="74"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="35" t="s">
         <v>186</v>
       </c>
@@ -5309,7 +7405,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="46"/>
-      <c r="I4" s="64"/>
+      <c r="I4" s="74"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
@@ -5332,7 +7428,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="46"/>
-      <c r="I5" s="64"/>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
@@ -7410,7 +9506,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="23"/>
-      <c r="I3" s="65"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
@@ -7433,7 +9529,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="23"/>
-      <c r="I4" s="65"/>
+      <c r="I4" s="75"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -8272,7 +10368,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="18"/>
-      <c r="I3" s="66"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
@@ -8293,7 +10389,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="18"/>
-      <c r="I4" s="67"/>
+      <c r="I4" s="77"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
@@ -9778,7 +11874,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="76" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9803,7 +11899,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="8"/>
-      <c r="I4" s="67"/>
+      <c r="I4" s="77"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -11664,7 +13760,7 @@
       <c r="A64" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B64" s="62" t="s">
+      <c r="B64" s="72" t="s">
         <v>181</v>
       </c>
       <c r="C64" s="35" t="s">
@@ -11685,7 +13781,7 @@
       <c r="A65" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="B65" s="63"/>
+      <c r="B65" s="73"/>
       <c r="C65" s="35" t="s">
         <v>186</v>
       </c>
